--- a/W7/D4/DAILY CHALLENGE/Dino File.xlsx
+++ b/W7/D4/DAILY CHALLENGE/Dino File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teitelbaumsair/Desktop/Data Bootcamp/W7/D4/DAILY CHALLENGE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CB22E3-8130-CE4A-B993-EAA83CB34843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F484F815-B9AE-A34A-8507-E8AA486A5D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2899,7 +2899,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
